--- a/samples/SA-عينة-مكاتب-هندسية-preview.xlsx
+++ b/samples/SA-عينة-مكاتب-هندسية-preview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="669">
   <si>
     <t>Name</t>
   </si>
@@ -52,304 +52,304 @@
     <t>Activities</t>
   </si>
   <si>
-    <t>دار بصيره للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>كاد للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>عبدالله عوضه عبدالله  الشهراني للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>شركة ثبات التقنية للمقاولات (شركة شخص واحد)</t>
-  </si>
-  <si>
-    <t>مؤسسة مجد البنيان للمقاولات العامة</t>
-  </si>
-  <si>
-    <t>بدر قاعد ضويحي الغبيوي العتيبي للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>قامات للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>شركة أليس للمقاولات</t>
-  </si>
-  <si>
-    <t>شركة بيت العرب للتطوير العقاري</t>
-  </si>
-  <si>
-    <t>رسام ارت للهندسة المدنية</t>
-  </si>
-  <si>
-    <t>مؤسسة غلباء عبدالله علي مجدوع للمقاولات</t>
-  </si>
-  <si>
-    <t>ساس الأبداع للإستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>شركة محمد حامد الهرساني للاستشارات الهندسية شركة شخص واحد</t>
-  </si>
-  <si>
-    <t>أمان العمارة للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>شدن للهندسة المدنية</t>
-  </si>
-  <si>
-    <t>شركة تنفيذ الواقع للاستشارات المهنية</t>
-  </si>
-  <si>
-    <t>الودعاني مهندسون استشاريون</t>
-  </si>
-  <si>
-    <t>اميال الشرق للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>ابعاد التميز للهندسة المدنية</t>
-  </si>
-  <si>
-    <t>مكتب أحد للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>عبدالله مشارى عبدالله  الحسيني للهندسة المدنية</t>
-  </si>
-  <si>
-    <t>شركة الاعمار المباشر للمقاولات المعمارية (شركة شخص واحد)</t>
-  </si>
-  <si>
-    <t>مكتب وزانة البناء للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>الناصية للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>الشركة المتقدمة للأعمال الكهروميكانيكية</t>
-  </si>
-  <si>
-    <t>مؤسسة محمد الزغيبي للمقاولات</t>
-  </si>
-  <si>
-    <t>فرع شركة جمال يوسف داوود وشريكه - - -</t>
-  </si>
-  <si>
-    <t>عادل علي احمد  اليامي للهندسة المعمارية</t>
-  </si>
-  <si>
-    <t>مكتب مصبح عساف الغامدي</t>
-  </si>
-  <si>
-    <t>شركة علي خضير الحربي واحمد عمر راضي للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>المعمار المتكاملة للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>مفتاح الخبرة للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>عبدالعزيز حسن محمد حبيب للمساحة الأرضية</t>
-  </si>
-  <si>
-    <t>مؤسسة ناس العالمية للمقاولات العامه</t>
-  </si>
-  <si>
-    <t>مؤسسة برج الاوائل للمقاولات</t>
-  </si>
-  <si>
-    <t>نماء المتقدمة للستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>مؤسسة الأنماط العمرانية للمقاولات العامة</t>
-  </si>
-  <si>
-    <t>شركة بيت الخبرة للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>سعد سعود عايض الشدادي الحارثي للمساحة الأرضية</t>
-  </si>
-  <si>
-    <t>سعد مفرح  الشمراني للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>جلوبال للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>مكتب طلال عباس أدهم للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>المعمار المتطور للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>مؤسسة ابداع المروج للمقاولات المعمارية</t>
-  </si>
-  <si>
-    <t>مؤسسة ابتكار للمقاولات</t>
-  </si>
-  <si>
-    <t>البصائر النيرة للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>الزكري للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>اجادة المعمار للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>شركة إنسات السعوديه للإنشاءات المحدودة - - -</t>
-  </si>
-  <si>
-    <t>مؤسسة الاسناد والبناء للمقاولات</t>
-  </si>
-  <si>
-    <t>شركة زوايا البناء للاستشارات الهندسية مهنية شركة شخص واحد</t>
-  </si>
-  <si>
-    <t>صروح العمارة للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>مؤسسة شريان حائل للمقاولات العامة</t>
-  </si>
-  <si>
-    <t>بلدي للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>هام السحب للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>مكتب معيض شاكر للرسم المعماري</t>
-  </si>
-  <si>
-    <t>محمد بخيت العجمي للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>مؤسسة عبدالكريم سائر الجعيد للمقاولات</t>
-  </si>
-  <si>
-    <t>كيان الخبراء للهندسة المدنية</t>
-  </si>
-  <si>
-    <t>نسق التقنية للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>مؤسسة سامي عبدالله احمد باعزب</t>
-  </si>
-  <si>
-    <t>عبدالكريم مطني نافع السبيعي العنزي للهندسة المدنية</t>
-  </si>
-  <si>
-    <t>دريشة للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>حمد ابن محمدرشيد ابن النور  احمد للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>أركان العمارة للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>عبدالعزيز تركي العطيشان للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>مؤسسة الفالكوم للمصاعد</t>
-  </si>
-  <si>
-    <t>شركة الأشهب العالمية للتجارة</t>
-  </si>
-  <si>
-    <t>المجاز للإستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>فارس عبدالرحمن الفارس للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>ابتكار المنزل للهندسة المعمارية</t>
-  </si>
-  <si>
-    <t>سما العمارة للهندسة المعمارية</t>
-  </si>
-  <si>
-    <t>مؤسسة هلهله للمقاولات</t>
-  </si>
-  <si>
-    <t>مؤسسة محمد منصور المطيري للمقاولات</t>
+    <t>دار بصيره للاس...</t>
+  </si>
+  <si>
+    <t>كاد للاستشارات...</t>
+  </si>
+  <si>
+    <t>عبدالله عوضه ع...</t>
+  </si>
+  <si>
+    <t>شركة ثبات التق...</t>
+  </si>
+  <si>
+    <t>مؤسسة مجد البن...</t>
+  </si>
+  <si>
+    <t>بدر قاعد ضويحي...</t>
+  </si>
+  <si>
+    <t>قامات للاستشار...</t>
+  </si>
+  <si>
+    <t>شركة أليس للمق...</t>
+  </si>
+  <si>
+    <t>شركة بيت العرب...</t>
+  </si>
+  <si>
+    <t>رسام ارت للهند...</t>
+  </si>
+  <si>
+    <t>مؤسسة غلباء عب...</t>
+  </si>
+  <si>
+    <t>ساس الأبداع لل...</t>
+  </si>
+  <si>
+    <t>شركة محمد حامد...</t>
+  </si>
+  <si>
+    <t>أمان العمارة ل...</t>
+  </si>
+  <si>
+    <t>شدن للهندسة ال...</t>
+  </si>
+  <si>
+    <t>شركة تنفيذ الو...</t>
+  </si>
+  <si>
+    <t>الودعاني مهندس...</t>
+  </si>
+  <si>
+    <t>اميال الشرق لل...</t>
+  </si>
+  <si>
+    <t>ابعاد التميز ل...</t>
+  </si>
+  <si>
+    <t>مكتب أحد للاست...</t>
+  </si>
+  <si>
+    <t>عبدالله مشارى ...</t>
+  </si>
+  <si>
+    <t>شركة الاعمار ا...</t>
+  </si>
+  <si>
+    <t>مكتب وزانة الب...</t>
+  </si>
+  <si>
+    <t>الناصية للاستش...</t>
+  </si>
+  <si>
+    <t>الشركة المتقدم...</t>
+  </si>
+  <si>
+    <t>مؤسسة محمد الز...</t>
+  </si>
+  <si>
+    <t>فرع شركة جمال ...</t>
+  </si>
+  <si>
+    <t>عادل علي احمد ...</t>
+  </si>
+  <si>
+    <t>مكتب مصبح عساف...</t>
+  </si>
+  <si>
+    <t>شركة علي خضير ...</t>
+  </si>
+  <si>
+    <t>المعمار المتكا...</t>
+  </si>
+  <si>
+    <t>مفتاح الخبرة ل...</t>
+  </si>
+  <si>
+    <t>عبدالعزيز حسن ...</t>
+  </si>
+  <si>
+    <t>مؤسسة ناس العا...</t>
+  </si>
+  <si>
+    <t>مؤسسة برج الاو...</t>
+  </si>
+  <si>
+    <t>نماء المتقدمة ...</t>
+  </si>
+  <si>
+    <t>مؤسسة الأنماط ...</t>
+  </si>
+  <si>
+    <t>شركة بيت الخبر...</t>
+  </si>
+  <si>
+    <t>سعد سعود عايض ...</t>
+  </si>
+  <si>
+    <t>سعد مفرح  الشم...</t>
+  </si>
+  <si>
+    <t>جلوبال للاستشا...</t>
+  </si>
+  <si>
+    <t>مكتب طلال عباس...</t>
+  </si>
+  <si>
+    <t>المعمار المتطو...</t>
+  </si>
+  <si>
+    <t>مؤسسة ابداع ال...</t>
+  </si>
+  <si>
+    <t>مؤسسة ابتكار ل...</t>
+  </si>
+  <si>
+    <t>البصائر النيرة...</t>
+  </si>
+  <si>
+    <t>الزكري للاستشا...</t>
+  </si>
+  <si>
+    <t>اجادة المعمار ...</t>
+  </si>
+  <si>
+    <t>شركة إنسات الس...</t>
+  </si>
+  <si>
+    <t>مؤسسة الاسناد ...</t>
+  </si>
+  <si>
+    <t>شركة زوايا الب...</t>
+  </si>
+  <si>
+    <t>صروح العمارة ل...</t>
+  </si>
+  <si>
+    <t>مؤسسة شريان حا...</t>
+  </si>
+  <si>
+    <t>بلدي للاستشارا...</t>
+  </si>
+  <si>
+    <t>هام السحب للاس...</t>
+  </si>
+  <si>
+    <t>مكتب معيض شاكر...</t>
+  </si>
+  <si>
+    <t>محمد بخيت العج...</t>
+  </si>
+  <si>
+    <t>مؤسسة عبدالكري...</t>
+  </si>
+  <si>
+    <t>كيان الخبراء ل...</t>
+  </si>
+  <si>
+    <t>نسق التقنية لل...</t>
+  </si>
+  <si>
+    <t>مؤسسة سامي عبد...</t>
+  </si>
+  <si>
+    <t>عبدالكريم مطني...</t>
+  </si>
+  <si>
+    <t>دريشة للاستشار...</t>
+  </si>
+  <si>
+    <t>حمد ابن محمدرش...</t>
+  </si>
+  <si>
+    <t>أركان العمارة ...</t>
+  </si>
+  <si>
+    <t>عبدالعزيز تركي...</t>
+  </si>
+  <si>
+    <t>مؤسسة الفالكوم...</t>
+  </si>
+  <si>
+    <t>شركة الأشهب ال...</t>
+  </si>
+  <si>
+    <t>المجاز للإستشا...</t>
+  </si>
+  <si>
+    <t>فارس عبدالرحمن...</t>
+  </si>
+  <si>
+    <t>ابتكار المنزل ...</t>
+  </si>
+  <si>
+    <t>سما العمارة لل...</t>
+  </si>
+  <si>
+    <t>مؤسسة هلهله لل...</t>
+  </si>
+  <si>
+    <t>مؤسسة محمد منص...</t>
   </si>
   <si>
     <t>البحر الاحمر</t>
   </si>
   <si>
-    <t>عثمان محمد المنصور للأستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>سعد رجاء مساعد  الجعيد للمساحة الأرضية</t>
-  </si>
-  <si>
-    <t>الراقي للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>عبدالله علي الجعيب للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>مجال التطوير للهندسة المدنية</t>
-  </si>
-  <si>
-    <t>البيت السعودي للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>تكامل وبناء للهندسة المدنية</t>
-  </si>
-  <si>
-    <t>المنيفة للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>إحداثيات للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>ظل المنازل للأستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>مؤسسة فهد عبدالله سعد الحمراني للمقاولات</t>
-  </si>
-  <si>
-    <t>عبدالله عبدالمحسن الشايب للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>مدنيون للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>الشرق للاستشارات المهنية</t>
-  </si>
-  <si>
-    <t>ركن المعماري للهندسة المعمارية</t>
-  </si>
-  <si>
-    <t>فهد منهي بن عوض الحربي للمساحة الأرضية</t>
-  </si>
-  <si>
-    <t>مؤسسة غاتر تحسين الفهد العبدالعزيز للمقاولات</t>
-  </si>
-  <si>
-    <t>عادل قرافي صالح للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>البواني للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>ماجد محمد الهرساني للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>المنوال للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>شركة قوى الرؤية للاستشارات الهندسية للإستشارات المهنية</t>
-  </si>
-  <si>
-    <t>باسم محمد علي  حسب  الله للاستشارات الهندسية</t>
-  </si>
-  <si>
-    <t>مؤسسة حكاية نجد للمقاولات</t>
-  </si>
-  <si>
-    <t>التوازي للاستشارات الهندسية</t>
+    <t>عثمان محمد الم...</t>
+  </si>
+  <si>
+    <t>سعد رجاء مساعد...</t>
+  </si>
+  <si>
+    <t>الراقي للاستشا...</t>
+  </si>
+  <si>
+    <t>عبدالله علي ال...</t>
+  </si>
+  <si>
+    <t>مجال التطوير ل...</t>
+  </si>
+  <si>
+    <t>البيت السعودي ...</t>
+  </si>
+  <si>
+    <t>تكامل وبناء لل...</t>
+  </si>
+  <si>
+    <t>المنيفة للاستش...</t>
+  </si>
+  <si>
+    <t>إحداثيات للاست...</t>
+  </si>
+  <si>
+    <t>ظل المنازل للأ...</t>
+  </si>
+  <si>
+    <t>مؤسسة فهد عبدا...</t>
+  </si>
+  <si>
+    <t>عبدالله عبدالم...</t>
+  </si>
+  <si>
+    <t>مدنيون للاستشا...</t>
+  </si>
+  <si>
+    <t>الشرق للاستشار...</t>
+  </si>
+  <si>
+    <t>ركن المعماري ل...</t>
+  </si>
+  <si>
+    <t>فهد منهي بن عو...</t>
+  </si>
+  <si>
+    <t>مؤسسة غاتر تحس...</t>
+  </si>
+  <si>
+    <t>عادل قرافي صال...</t>
+  </si>
+  <si>
+    <t>البواني للاستش...</t>
+  </si>
+  <si>
+    <t>ماجد محمد الهر...</t>
+  </si>
+  <si>
+    <t>المنوال للاستش...</t>
+  </si>
+  <si>
+    <t>شركة قوى الرؤي...</t>
+  </si>
+  <si>
+    <t>باسم محمد علي ...</t>
+  </si>
+  <si>
+    <t>مؤسسة حكاية نج...</t>
+  </si>
+  <si>
+    <t>التوازي للاستش...</t>
   </si>
   <si>
     <t>5110003769</t>
@@ -652,79 +652,79 @@
     <t>5110003685</t>
   </si>
   <si>
-    <t xml:space="preserve">بريده                          </t>
+    <t>بريده         ...</t>
   </si>
   <si>
     <t xml:space="preserve">الرياض </t>
   </si>
   <si>
-    <t xml:space="preserve">أحدرفيدة                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مكه المكرمه                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">جده                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">تبوك                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">حفر الباطن                     </t>
+    <t>أحدرفيدة      ...</t>
+  </si>
+  <si>
+    <t>مكه المكرمه   ...</t>
+  </si>
+  <si>
+    <t>جده           ...</t>
+  </si>
+  <si>
+    <t>تبوك          ...</t>
+  </si>
+  <si>
+    <t>حفر الباطن    ...</t>
   </si>
   <si>
     <t xml:space="preserve">خميس  مشيط </t>
   </si>
   <si>
-    <t xml:space="preserve">جازان                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">المدينه المنوره                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">الخبر                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">الدمام                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">نجران                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">بلجرشي                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">حائل                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">الطائف                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">عفيف                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">الهفوف                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">عنيزة                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">المندق                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">وادى الدواسر                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">الباحه                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ابها                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">القطيف                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">سكاكا                          </t>
+    <t>جازان         ...</t>
+  </si>
+  <si>
+    <t>المدينه المنور...</t>
+  </si>
+  <si>
+    <t>الخبر         ...</t>
+  </si>
+  <si>
+    <t>الدمام        ...</t>
+  </si>
+  <si>
+    <t>نجران         ...</t>
+  </si>
+  <si>
+    <t>بلجرشي        ...</t>
+  </si>
+  <si>
+    <t>حائل          ...</t>
+  </si>
+  <si>
+    <t>الطائف        ...</t>
+  </si>
+  <si>
+    <t>عفيف          ...</t>
+  </si>
+  <si>
+    <t>الهفوف        ...</t>
+  </si>
+  <si>
+    <t>عنيزة         ...</t>
+  </si>
+  <si>
+    <t>المندق        ...</t>
+  </si>
+  <si>
+    <t>وادى الدواسر  ...</t>
+  </si>
+  <si>
+    <t>الباحه        ...</t>
+  </si>
+  <si>
+    <t>ابها          ...</t>
+  </si>
+  <si>
+    <t>القطيف        ...</t>
+  </si>
+  <si>
+    <t>سكاكا         ...</t>
   </si>
   <si>
     <t>مصنف</t>
@@ -1258,34 +1258,34 @@
     <t>+966117244622</t>
   </si>
   <si>
-    <t>https://darbasira.com</t>
-  </si>
-  <si>
-    <t>WWW.BE-CONS.COM</t>
-  </si>
-  <si>
-    <t>snapchat.com/add/sahom_2020</t>
-  </si>
-  <si>
-    <t>www.balady.com</t>
-  </si>
-  <si>
-    <t>www.qamaat.com</t>
-  </si>
-  <si>
-    <t>RASSAM.ART.GADA.NET</t>
-  </si>
-  <si>
-    <t>samanationals.com</t>
-  </si>
-  <si>
-    <t>www.sasaleibdaa.com</t>
-  </si>
-  <si>
-    <t>www.mha.com.sa</t>
-  </si>
-  <si>
-    <t>www.amanoffice.com</t>
+    <t>https://darbas...</t>
+  </si>
+  <si>
+    <t>WWW.BE-CONS.CO...</t>
+  </si>
+  <si>
+    <t>snapchat.com/a...</t>
+  </si>
+  <si>
+    <t>www.balady.com...</t>
+  </si>
+  <si>
+    <t>www.qamaat.com...</t>
+  </si>
+  <si>
+    <t>RASSAM.ART.GAD...</t>
+  </si>
+  <si>
+    <t>samanationals....</t>
+  </si>
+  <si>
+    <t>www.sasaleibda...</t>
+  </si>
+  <si>
+    <t>www.mha.com.sa...</t>
+  </si>
+  <si>
+    <t>www.amanoffice...</t>
   </si>
   <si>
     <t>www.shadn.com</t>
@@ -1294,16 +1294,16 @@
     <t>Reality.sa</t>
   </si>
   <si>
-    <t>www.alwadaani.com</t>
-  </si>
-  <si>
-    <t>amialasharq.sa</t>
+    <t>www.alwadaani....</t>
+  </si>
+  <si>
+    <t>amialasharq.sa...</t>
   </si>
   <si>
     <t>abaad.com</t>
   </si>
   <si>
-    <t>www.ohudmed.com</t>
+    <t>www.ohudmed.co...</t>
   </si>
   <si>
     <t>www.amheco.sa</t>
@@ -1318,37 +1318,37 @@
     <t>www.adel.com</t>
   </si>
   <si>
-    <t>www.alasaf.com</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/majidalsalloom/</t>
-  </si>
-  <si>
-    <t>www.expekey.com</t>
+    <t>www.alasaf.com...</t>
+  </si>
+  <si>
+    <t>https://www.in...</t>
+  </si>
+  <si>
+    <t>www.expekey.co...</t>
   </si>
   <si>
     <t>www.habeeb.cc</t>
   </si>
   <si>
-    <t>www.abnec.com.sa</t>
+    <t>www.abnec.com....</t>
   </si>
   <si>
     <t>not.com</t>
   </si>
   <si>
-    <t>www.eng.532.com</t>
-  </si>
-  <si>
-    <t>www.global-muheeb.com</t>
-  </si>
-  <si>
-    <t>www.3c-consultants.com</t>
-  </si>
-  <si>
-    <t>www.ibtikarco.com</t>
-  </si>
-  <si>
-    <t>www.alzakriconsult.com</t>
+    <t>www.eng.532.co...</t>
+  </si>
+  <si>
+    <t>www.global-muh...</t>
+  </si>
+  <si>
+    <t>www.3c-consult...</t>
+  </si>
+  <si>
+    <t>www.ibtikarco....</t>
+  </si>
+  <si>
+    <t>www.alzakricon...</t>
   </si>
   <si>
     <t>www.ijada.sa</t>
@@ -1357,22 +1357,22 @@
     <t>www.non</t>
   </si>
   <si>
-    <t>https://zawayaalbina.com/</t>
-  </si>
-  <si>
-    <t>www.sorouhconsult.com</t>
-  </si>
-  <si>
-    <t>www.ahmadaliengeir.com</t>
-  </si>
-  <si>
-    <t>https://hamalsohab.net/</t>
-  </si>
-  <si>
-    <t>www.ajmiconsult.com</t>
-  </si>
-  <si>
-    <t>https://www.kan.com</t>
+    <t>https://zawaya...</t>
+  </si>
+  <si>
+    <t>www.sorouhcons...</t>
+  </si>
+  <si>
+    <t>www.ahmadalien...</t>
+  </si>
+  <si>
+    <t>https://hamals...</t>
+  </si>
+  <si>
+    <t>www.ajmiconsul...</t>
+  </si>
+  <si>
+    <t>https://www.ka...</t>
   </si>
   <si>
     <t>www.nsask.sa</t>
@@ -1384,46 +1384,46 @@
     <t>drichah.7777</t>
   </si>
   <si>
-    <t>www.esttishara.com</t>
-  </si>
-  <si>
-    <t>www.arkan.com.sa</t>
-  </si>
-  <si>
-    <t>https://www.otaishan.com.sa/</t>
-  </si>
-  <si>
-    <t>www.almajaz.net</t>
-  </si>
-  <si>
-    <t>www.faconsultants.net</t>
+    <t>www.esttishara...</t>
+  </si>
+  <si>
+    <t>www.arkan.com....</t>
+  </si>
+  <si>
+    <t>https://www.ot...</t>
+  </si>
+  <si>
+    <t>www.almajaz.ne...</t>
+  </si>
+  <si>
+    <t>www.faconsulta...</t>
   </si>
   <si>
     <t>www.ih.com</t>
   </si>
   <si>
-    <t>www.smaarchi.com</t>
-  </si>
-  <si>
-    <t>mohamed.almutairi</t>
+    <t>www.smaarchi.c...</t>
+  </si>
+  <si>
+    <t>mohamed.almuta...</t>
   </si>
   <si>
     <t>almansour.com</t>
   </si>
   <si>
-    <t>https://goo.gl/maps/aSeph4xnK5TeeC7G9</t>
+    <t>https://goo.gl...</t>
   </si>
   <si>
     <t>www.raqi</t>
   </si>
   <si>
-    <t>https://www.aljoaib.com/</t>
-  </si>
-  <si>
-    <t>saeed.mnahi6050.com</t>
-  </si>
-  <si>
-    <t>https://saudihouse.business.site/</t>
+    <t>https://www.al...</t>
+  </si>
+  <si>
+    <t>saeed.mnahi605...</t>
+  </si>
+  <si>
+    <t>https://saudih...</t>
   </si>
   <si>
     <t>tkamol.net</t>
@@ -1435,76 +1435,76 @@
     <t>ajwaa2000.com</t>
   </si>
   <si>
-    <t>http://www.shadowhous.com/index</t>
+    <t>http://www.sha...</t>
   </si>
   <si>
     <t>urp.com</t>
   </si>
   <si>
-    <t>www.alshayeb.sa</t>
+    <t>www.alshayeb.s...</t>
   </si>
   <si>
     <t>madinans.com</t>
   </si>
   <si>
-    <t>www.ecec.com.sa</t>
-  </si>
-  <si>
-    <t>0544646156.com</t>
-  </si>
-  <si>
-    <t>WWW.almsaha.com</t>
-  </si>
-  <si>
-    <t>http://algarafi.com/</t>
-  </si>
-  <si>
-    <t>www.albawanieng.com</t>
-  </si>
-  <si>
-    <t>www.majedharasani.com</t>
-  </si>
-  <si>
-    <t>https://almenwaleng.com</t>
-  </si>
-  <si>
-    <t>instagram.powervision.office</t>
-  </si>
-  <si>
-    <t>www.basimconsultant.com</t>
-  </si>
-  <si>
-    <t>http://www.altawazi.com/</t>
-  </si>
-  <si>
-    <t>info@darbasira.com</t>
-  </si>
-  <si>
-    <t>alaqari00@hotmail.com</t>
-  </si>
-  <si>
-    <t>abdullah2800@hotmail.com</t>
-  </si>
-  <si>
-    <t>muhannad@thabatco.com</t>
-  </si>
-  <si>
-    <t>fahad050898@gmail.com</t>
+    <t>www.ecec.com.s...</t>
+  </si>
+  <si>
+    <t>0544646156.com...</t>
+  </si>
+  <si>
+    <t>WWW.almsaha.co...</t>
+  </si>
+  <si>
+    <t>http://algaraf...</t>
+  </si>
+  <si>
+    <t>www.albawanien...</t>
+  </si>
+  <si>
+    <t>www.majedharas...</t>
+  </si>
+  <si>
+    <t>https://almenw...</t>
+  </si>
+  <si>
+    <t>instagram.powe...</t>
+  </si>
+  <si>
+    <t>www.basimconsu...</t>
+  </si>
+  <si>
+    <t>http://www.alt...</t>
+  </si>
+  <si>
+    <t>info@darbasira...</t>
+  </si>
+  <si>
+    <t>alaqari00@hotm...</t>
+  </si>
+  <si>
+    <t>abdullah2800@h...</t>
+  </si>
+  <si>
+    <t>muhannad@thaba...</t>
+  </si>
+  <si>
+    <t>fahad050898@gm...</t>
   </si>
   <si>
     <t>4b@hotmail.sg</t>
   </si>
   <si>
-    <t>msthu2013@gmail.com</t>
-  </si>
-  <si>
-    <t>mohammad.alqhtani5@gmail.com</t>
-  </si>
-  <si>
-    <t>engr.mttr@gmail.com</t>
-  </si>
-  <si>
-    <t>yalgamdi11@gmail.com</t>
+    <t>msthu2013@gmai...</t>
+  </si>
+  <si>
+    <t>mohammad.alqht...</t>
+  </si>
+  <si>
+    <t>engr.mttr@gmai...</t>
+  </si>
+  <si>
+    <t>yalgamdi11@gma...</t>
   </si>
   <si>
     <t>a3mal@aol.com</t>
@@ -1513,229 +1513,226 @@
     <t>mh@mha.com.sa</t>
   </si>
   <si>
-    <t>em404@hotmail.com</t>
-  </si>
-  <si>
-    <t>s.s.q55@hotmail.com</t>
-  </si>
-  <si>
-    <t>realitydesig@gmail.com</t>
-  </si>
-  <si>
-    <t>alwadeng55@yahoo.com</t>
-  </si>
-  <si>
-    <t>a6a66a5566@gmail.com</t>
-  </si>
-  <si>
-    <t>abaadeng735@gmail.com</t>
-  </si>
-  <si>
-    <t>mohamedtaleb1981@yahoo.com</t>
-  </si>
-  <si>
-    <t>i3bdullahh@hotmail.com</t>
-  </si>
-  <si>
-    <t>razzaqso83@gmail.com</t>
-  </si>
-  <si>
-    <t>waleedsds@hotmail.com</t>
-  </si>
-  <si>
-    <t>mohammad.hatamleh@acew-saudi.com</t>
-  </si>
-  <si>
-    <t>jamalco.ksa@gmail.com</t>
-  </si>
-  <si>
-    <t>kindezn@gmail.com</t>
-  </si>
-  <si>
-    <t>mosbeh5@yahoo.com</t>
-  </si>
-  <si>
-    <t>radicongulf@radicongulf.com</t>
-  </si>
-  <si>
-    <t>almemareng@gmail.com</t>
-  </si>
-  <si>
-    <t>info@expekey.com</t>
-  </si>
-  <si>
-    <t>ahhabeeb0@gmail.com</t>
-  </si>
-  <si>
-    <t>fahdosaimi@gmail.com</t>
-  </si>
-  <si>
-    <t>b28bbb@gmail.com</t>
-  </si>
-  <si>
-    <t>engalsaad@hotmail.com</t>
-  </si>
-  <si>
-    <t>eng.532@hotmail.com</t>
-  </si>
-  <si>
-    <t>halimhossameldeen@hotmail.com</t>
+    <t>em404@hotmail....</t>
+  </si>
+  <si>
+    <t>s.s.q55@hotmai...</t>
+  </si>
+  <si>
+    <t>realitydesig@g...</t>
+  </si>
+  <si>
+    <t>alwadeng55@yah...</t>
+  </si>
+  <si>
+    <t>a6a66a5566@gma...</t>
+  </si>
+  <si>
+    <t>abaadeng735@gm...</t>
+  </si>
+  <si>
+    <t>mohamedtaleb19...</t>
+  </si>
+  <si>
+    <t>i3bdullahh@hot...</t>
+  </si>
+  <si>
+    <t>razzaqso83@gma...</t>
+  </si>
+  <si>
+    <t>waleedsds@hotm...</t>
+  </si>
+  <si>
+    <t>mohammad.hatam...</t>
+  </si>
+  <si>
+    <t>jamalco.ksa@gm...</t>
+  </si>
+  <si>
+    <t>kindezn@gmail....</t>
+  </si>
+  <si>
+    <t>mosbeh5@yahoo....</t>
+  </si>
+  <si>
+    <t>radicongulf@ra...</t>
+  </si>
+  <si>
+    <t>almemareng@gma...</t>
+  </si>
+  <si>
+    <t>info@expekey.c...</t>
+  </si>
+  <si>
+    <t>ahhabeeb0@gmai...</t>
+  </si>
+  <si>
+    <t>fahdosaimi@gma...</t>
+  </si>
+  <si>
+    <t>b28bbb@gmail.c...</t>
+  </si>
+  <si>
+    <t>engalsaad@hotm...</t>
+  </si>
+  <si>
+    <t>eng.532@hotmai...</t>
+  </si>
+  <si>
+    <t>halimhossameld...</t>
   </si>
   <si>
     <t>pers4@ihcc.sa</t>
   </si>
   <si>
-    <t>h0537872071@gmail.com</t>
-  </si>
-  <si>
-    <t>info@ibtikarco.com</t>
-  </si>
-  <si>
-    <t>saleh@basarnera.com</t>
-  </si>
-  <si>
-    <t>alzakriconsult_ksa@yahoo.com</t>
-  </si>
-  <si>
-    <t>ijada.sa@gmail.com</t>
-  </si>
-  <si>
-    <t>saudi.insat@gmail.com</t>
-  </si>
-  <si>
-    <t>engabdulmjeed@gmail.com</t>
-  </si>
-  <si>
-    <t>zawayaalbina@gmail.com</t>
-  </si>
-  <si>
-    <t>mohd_019@hotmail.com</t>
-  </si>
-  <si>
-    <t>hemoo133@gmail.com</t>
-  </si>
-  <si>
-    <t>ahmadabha@hotmail.com</t>
-  </si>
-  <si>
-    <t>officemanager.mohamed@yahoo.com</t>
-  </si>
-  <si>
-    <t>mba1956@yahoo.com</t>
-  </si>
-  <si>
-    <t>eng-ahmad87@hotmail.com</t>
-  </si>
-  <si>
-    <t>mosharyhol@hotmail.com</t>
-  </si>
-  <si>
-    <t>kryym_545@hotmail.com</t>
-  </si>
-  <si>
-    <t>drichah.7777@yahoo.com</t>
-  </si>
-  <si>
-    <t>hamad_alnoor@yahoo.com</t>
-  </si>
-  <si>
-    <t>talal.aok@gmail.com</t>
-  </si>
-  <si>
-    <t>oce@otaishan.com.sa</t>
-  </si>
-  <si>
-    <t>falcomelevators@hotmail.com</t>
-  </si>
-  <si>
-    <t>f.alyahya@almajaz.net</t>
-  </si>
-  <si>
-    <t>info@faconsultants.net</t>
-  </si>
-  <si>
-    <t>arch.malhedayan@gmail.com</t>
-  </si>
-  <si>
-    <t>info@smaarchi.com</t>
-  </si>
-  <si>
-    <t>fa.hegazi@halhalah.com</t>
-  </si>
-  <si>
-    <t>mohamed.almutairi@yahoo.com</t>
-  </si>
-  <si>
-    <t>s.qutub@rsc-sa.com</t>
-  </si>
-  <si>
-    <t>othmanom@yahoo.com</t>
-  </si>
-  <si>
-    <t>seelfoy@gmail.com</t>
-  </si>
-  <si>
-    <t>m.s.m.m@outlook.sa</t>
-  </si>
-  <si>
-    <t>contracts@aljoaib.com</t>
-  </si>
-  <si>
-    <t>saeed.mnahi@gmail.com</t>
-  </si>
-  <si>
-    <t>aadhs2015@gmail.com</t>
-  </si>
-  <si>
-    <t>info@tkamol.net</t>
-  </si>
-  <si>
-    <t>salman@almanifa.com</t>
-  </si>
-  <si>
-    <t>ajwaa2000@yahoo.com</t>
-  </si>
-  <si>
-    <t>manazel66@gmail.com</t>
-  </si>
-  <si>
-    <t>urp3274@gmail.com</t>
-  </si>
-  <si>
-    <t>info@alshayeb.sa</t>
-  </si>
-  <si>
-    <t>ibneffat@gmail.com</t>
-  </si>
-  <si>
-    <t>turki.agm@ecec.com.sa</t>
-  </si>
-  <si>
-    <t>0544646156@gmail.com</t>
-  </si>
-  <si>
-    <t>ppaa4282@gmail.com</t>
-  </si>
-  <si>
-    <t>agsfec@algarafi.com</t>
-  </si>
-  <si>
-    <t>albawanieng@hotmail.com</t>
-  </si>
-  <si>
-    <t>majed@majedharasani.com</t>
-  </si>
-  <si>
-    <t>fares777@yahoo.com</t>
-  </si>
-  <si>
-    <t>powervision.qatif@hotmail.com</t>
-  </si>
-  <si>
-    <t>info@basimconsultant.com</t>
-  </si>
-  <si>
-    <t>eng_muhd@yahoo.com</t>
+    <t>h0537872071@gm...</t>
+  </si>
+  <si>
+    <t>info@ibtikarco...</t>
+  </si>
+  <si>
+    <t>saleh@basarner...</t>
+  </si>
+  <si>
+    <t>alzakriconsult...</t>
+  </si>
+  <si>
+    <t>ijada.sa@gmail...</t>
+  </si>
+  <si>
+    <t>saudi.insat@gm...</t>
+  </si>
+  <si>
+    <t>engabdulmjeed@...</t>
+  </si>
+  <si>
+    <t>zawayaalbina@g...</t>
+  </si>
+  <si>
+    <t>mohd_019@hotma...</t>
+  </si>
+  <si>
+    <t>hemoo133@gmail...</t>
+  </si>
+  <si>
+    <t>ahmadabha@hotm...</t>
+  </si>
+  <si>
+    <t>officemanager....</t>
+  </si>
+  <si>
+    <t>mba1956@yahoo....</t>
+  </si>
+  <si>
+    <t>eng-ahmad87@ho...</t>
+  </si>
+  <si>
+    <t>mosharyhol@hot...</t>
+  </si>
+  <si>
+    <t>kryym_545@hotm...</t>
+  </si>
+  <si>
+    <t>drichah.7777@y...</t>
+  </si>
+  <si>
+    <t>hamad_alnoor@y...</t>
+  </si>
+  <si>
+    <t>talal.aok@gmai...</t>
+  </si>
+  <si>
+    <t>oce@otaishan.c...</t>
+  </si>
+  <si>
+    <t>falcomelevator...</t>
+  </si>
+  <si>
+    <t>f.alyahya@alma...</t>
+  </si>
+  <si>
+    <t>info@faconsult...</t>
+  </si>
+  <si>
+    <t>arch.malhedaya...</t>
+  </si>
+  <si>
+    <t>info@smaarchi....</t>
+  </si>
+  <si>
+    <t>fa.hegazi@halh...</t>
+  </si>
+  <si>
+    <t>s.qutub@rsc-sa...</t>
+  </si>
+  <si>
+    <t>othmanom@yahoo...</t>
+  </si>
+  <si>
+    <t>seelfoy@gmail....</t>
+  </si>
+  <si>
+    <t>m.s.m.m@outloo...</t>
+  </si>
+  <si>
+    <t>contracts@aljo...</t>
+  </si>
+  <si>
+    <t>saeed.mnahi@gm...</t>
+  </si>
+  <si>
+    <t>aadhs2015@gmai...</t>
+  </si>
+  <si>
+    <t>info@tkamol.ne...</t>
+  </si>
+  <si>
+    <t>salman@almanif...</t>
+  </si>
+  <si>
+    <t>ajwaa2000@yaho...</t>
+  </si>
+  <si>
+    <t>manazel66@gmai...</t>
+  </si>
+  <si>
+    <t>urp3274@gmail....</t>
+  </si>
+  <si>
+    <t>info@alshayeb....</t>
+  </si>
+  <si>
+    <t>ibneffat@gmail...</t>
+  </si>
+  <si>
+    <t>turki.agm@ecec...</t>
+  </si>
+  <si>
+    <t>0544646156@gma...</t>
+  </si>
+  <si>
+    <t>ppaa4282@gmail...</t>
+  </si>
+  <si>
+    <t>agsfec@algaraf...</t>
+  </si>
+  <si>
+    <t>albawanieng@ho...</t>
+  </si>
+  <si>
+    <t>majed@majedhar...</t>
+  </si>
+  <si>
+    <t>fares777@yahoo...</t>
+  </si>
+  <si>
+    <t>powervision.qa...</t>
+  </si>
+  <si>
+    <t>info@basimcons...</t>
+  </si>
+  <si>
+    <t>eng_muhd@yahoo...</t>
   </si>
   <si>
     <t>+966122614491</t>
@@ -1813,7 +1810,7 @@
     <t>+966114805054</t>
   </si>
   <si>
-    <t>القصيم _ بريدة _ طريق الملك سلمان</t>
+    <t>القصيم _ بريدة...</t>
   </si>
   <si>
     <t>حي الشهداء</t>
@@ -1822,25 +1819,25 @@
     <t>احدرفيده</t>
   </si>
   <si>
-    <t>حي الحمرا-شارع المصانع</t>
-  </si>
-  <si>
-    <t>حي الخضراء - شارع الحارث بن بدل السعدي رضي الله عنه</t>
+    <t>حي الحمرا-شارع...</t>
+  </si>
+  <si>
+    <t>حي الخضراء - ش...</t>
   </si>
   <si>
     <t>شارع الستين</t>
   </si>
   <si>
-    <t>جده حي الصفا شارع التحلية بناية الازهر الدور الارضي</t>
-  </si>
-  <si>
-    <t>جدة - حي المرجان</t>
-  </si>
-  <si>
-    <t>25 شارع عثمان بن عفان</t>
-  </si>
-  <si>
-    <t>طريق الملك فهد</t>
+    <t>جده حي الصفا ش...</t>
+  </si>
+  <si>
+    <t>جدة - حي المرج...</t>
+  </si>
+  <si>
+    <t>25 شارع عثمان ...</t>
+  </si>
+  <si>
+    <t>طريق الملك فهد...</t>
   </si>
   <si>
     <t>الرياض</t>
@@ -1849,85 +1846,85 @@
     <t>الياسمين</t>
   </si>
   <si>
-    <t>شارع علي بن ابي طالب</t>
-  </si>
-  <si>
-    <t>خميس مشيط-حي الربيع</t>
+    <t>شارع علي بن اب...</t>
+  </si>
+  <si>
+    <t>خميس مشيط-حي ا...</t>
   </si>
   <si>
     <t>حي النسيم</t>
   </si>
   <si>
-    <t>شارع السيح - حي الفتح</t>
-  </si>
-  <si>
-    <t>الخبر الجنوبية - الشارع الرابع تقاطع ابو حدرية</t>
-  </si>
-  <si>
-    <t>جدة - شارع الامير سلطان</t>
-  </si>
-  <si>
-    <t>شارع الحسن بن علي - حي الروضة  - مدينة الرياض</t>
-  </si>
-  <si>
-    <t>نجران - حي الفه\ - شارع الحسين بن علي بن ابي طالب</t>
-  </si>
-  <si>
-    <t>طريق الملك سعود - برج العساف - مقابل مصرف الراجحي</t>
-  </si>
-  <si>
-    <t>الرياض حي الملقا طريق انس بن مالك</t>
-  </si>
-  <si>
-    <t>الرياض - حي اليرموك - طريق الدمام - شارع كداء - رقم المبنى2213 رقم المكتب 203 جوال:0557883436 الايميل:info@expekey@gmail.com</t>
-  </si>
-  <si>
-    <t>8003 طريق الملك عبدالله الفرعي - حي الاصيفرين - المدينة المنوره</t>
-  </si>
-  <si>
-    <t>شارع الأمير متعب ـ برج الأقصى</t>
+    <t>شارع السيح - ح...</t>
+  </si>
+  <si>
+    <t>الخبر الجنوبية...</t>
+  </si>
+  <si>
+    <t>جدة - شارع الا...</t>
+  </si>
+  <si>
+    <t>شارع الحسن بن ...</t>
+  </si>
+  <si>
+    <t>نجران - حي الف...</t>
+  </si>
+  <si>
+    <t>طريق الملك سعو...</t>
+  </si>
+  <si>
+    <t>الرياض حي المل...</t>
+  </si>
+  <si>
+    <t>الرياض - حي ال...</t>
+  </si>
+  <si>
+    <t>8003 طريق المل...</t>
+  </si>
+  <si>
+    <t>شارع الأمير مت...</t>
   </si>
   <si>
     <t>الطائف حي نخب</t>
   </si>
   <si>
-    <t>حي العارض - شارع ريحانه بنت زيد</t>
-  </si>
-  <si>
-    <t>شارع موسى بن نصير -مدخل مكاتب النمر 1 -مكتب 513 - حي العليا</t>
+    <t>حي العارض - شا...</t>
+  </si>
+  <si>
+    <t>شارع موسى بن ن...</t>
   </si>
   <si>
     <t>شارع البترجي</t>
   </si>
   <si>
-    <t>المدينة المنورة حي جشم طريق الملك عبد الله الفرعي مبنى رقم 6442</t>
+    <t>المدينة المنور...</t>
   </si>
   <si>
     <t>الخبر</t>
   </si>
   <si>
-    <t>7993 معالي ابراهيم عبدالله العنقري حي ولي العهد</t>
-  </si>
-  <si>
-    <t>تبوك السليمانية شارع الامير عبدالمجيد</t>
+    <t>7993 معالي ابر...</t>
+  </si>
+  <si>
+    <t>تبوك السليماني...</t>
   </si>
   <si>
     <t>حي الروضة</t>
   </si>
   <si>
-    <t>شارع الملك عبدالعزيز</t>
+    <t>شارع الملك عبد...</t>
   </si>
   <si>
     <t>جازان</t>
   </si>
   <si>
-    <t>3674 شارع ابن سينا رقم 3 حي المروج رقم الوحدة 64 الرياض 12284- 7440</t>
+    <t>3674 شارع ابن ...</t>
   </si>
   <si>
     <t>حى العليا -</t>
   </si>
   <si>
-    <t>3739-حراء-حي السلامة -8173</t>
+    <t>3739-حراء-حي ا...</t>
   </si>
   <si>
     <t>الاحساء</t>
@@ -1936,25 +1933,22 @@
     <t>الشفا</t>
   </si>
   <si>
-    <t>المدينة المنورة طريق الملك عبدالله  دوار القبلتين</t>
-  </si>
-  <si>
-    <t>حي النهضة - طريق الامير سلطان - مبنى تاج السلطان للاعمال</t>
-  </si>
-  <si>
-    <t>العليا الربيع بن انس</t>
-  </si>
-  <si>
-    <t>4385Umar Ibn Abdul Aziz Rd., Jarir District, Riyadh 12833 - 8867</t>
-  </si>
-  <si>
-    <t>الرياض - العليا - أبراج العليا</t>
+    <t>حي النهضة - طر...</t>
+  </si>
+  <si>
+    <t>العليا الربيع ...</t>
+  </si>
+  <si>
+    <t>4385Umar Ibn A...</t>
+  </si>
+  <si>
+    <t>الرياض - العلي...</t>
   </si>
   <si>
     <t>حي القيروان</t>
   </si>
   <si>
-    <t>حي الحمراء - شارع الحلفاء</t>
+    <t>حي الحمراء - ش...</t>
   </si>
   <si>
     <t>عنيزة</t>
@@ -1963,19 +1957,19 @@
     <t>شبرا</t>
   </si>
   <si>
-    <t>النصباء  - الشارع العام - جوار النيابة العامة</t>
-  </si>
-  <si>
-    <t>الخماسين بجوار مدرسة العقبق والمحكمة العامة</t>
-  </si>
-  <si>
-    <t>الدمام حي الروضة</t>
-  </si>
-  <si>
-    <t>الباحة _ العقيق الحزم</t>
-  </si>
-  <si>
-    <t>طريق الملك خالد</t>
+    <t>النصباء  - الش...</t>
+  </si>
+  <si>
+    <t>الخماسين بجوار...</t>
+  </si>
+  <si>
+    <t>الدمام حي الرو...</t>
+  </si>
+  <si>
+    <t>الباحة _ العقي...</t>
+  </si>
+  <si>
+    <t>طريق الملك خال...</t>
   </si>
   <si>
     <t>الدمام</t>
@@ -1984,19 +1978,19 @@
     <t>2609</t>
   </si>
   <si>
-    <t>8029، طريق الملك عبدالعزيز 2056، حي السد 62521 ابها</t>
-  </si>
-  <si>
-    <t>مكة المكرمة - العدل - الشارع العام - عمارة البيك بجبل النور</t>
-  </si>
-  <si>
-    <t>ابها عمائر ال عائض</t>
+    <t>8029، طريق الم...</t>
+  </si>
+  <si>
+    <t>مكة المكرمة - ...</t>
+  </si>
+  <si>
+    <t>ابها عمائر ال ...</t>
   </si>
   <si>
     <t>الهفوف</t>
   </si>
   <si>
-    <t>مكتب 410 برج السلام شارع زيد بن الخطاب حي العليا</t>
+    <t>مكتب 410 برج ا...</t>
   </si>
   <si>
     <t>شارع الجامعة</t>
@@ -2005,274 +1999,29 @@
     <t>بريده</t>
   </si>
   <si>
-    <t>الرياض - حي اليرموك - شارع النجاح</t>
-  </si>
-  <si>
-    <t>جدة - حي العزيزية - طريق الملك فهد - عمارة الراجحي</t>
-  </si>
-  <si>
-    <t>طؤيق عمر بن الخطاب</t>
-  </si>
-  <si>
-    <t>حي الاندالس شارع عرفات مبني مشيره</t>
-  </si>
-  <si>
-    <t>المملكة العربية السعودية - الرياض - حي العقيق - طريق الملك فهد -امام الهلال الاحمر</t>
-  </si>
-  <si>
-    <t>حي الخامسة شارع القدس عمارة ال فرج اعلى  بنك البلاد شارع الارقم بن ابي الارقم</t>
-  </si>
-  <si>
-    <t>جده- ابحر الشماليه</t>
-  </si>
-  <si>
-    <t>الرياض \ عفيف \ طريق الملك سعود</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  10  80    2  الاستشارات الهندسية لعمارة البيئة      3  أنشطة أخرى متعلقة بأنشطة الهندسة المدنية  10  60    4  الاستشارات الهندسية للمياه والصرف الصحي  10  30    5  الاستشارات الهندسية للتخطيط الحضري      6  أنشطة الاستشارات الجيولوجية      7  أنشطة الاستشارات الهندسية والمعمارية      8  الاستشارات الهندسية للسكك الحديدية  10  80    9  أنشطة الاستشارات البحرية      10  الاستشارات الهندسية للطرق والجسور والانفاق  10  60    11  إدارة المشاريع الانشائية      12  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية لعمارة البيئة      2  استشارات الهندسة الميكانيكية      3  الاستشارات الهندسية للتخطيط الحضري      4  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية      5  أنشطة الاستشارات البحرية      6  الاستشارات الهندسية للسكك الحديدية      7  إدارة المشاريع الانشائية      8  أنشطة الاستشارات الجيولوجية      9  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري      10  الاستشارات الهندسية للطرق والجسور والانفاق      11  الاستشارات الهندسية للمياه والصرف الصحي      12  أنشطة الاستشارات الهندسية والمعمارية</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  إدارة المشاريع الانشائية  1500  26000    2  الاستشارات الهندسية للمياه والصرف الصحي  50  500    3  أنشطة أخرى متعلقة بأنشطة الهندسة المدنية  10  150    4  أنشطة الاستشارات الهندسية والمعمارية  150  180000    5  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  200  1000    6  أنشطة الاستشارات البحرية  1000  100000    7  أنشطة الاستشارات الجيولوجية  500  65000    8  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية      9  الاستشارات الهندسية للتخطيط الحضري  250  150000    10  الاستشارات الهندسية للطرق والجسور والانفاق  10  300    11  الاستشارات الهندسية للسكك الحديدية  50  500    12  الاستشارات الهندسية لعمارة البيئة  100  150000</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الإنشاءات العامة للمباني الغير السكنية ، يشمل (المدارس ، المستشفيات، الفنادق ...الخ)  100  1000    2  الإنشاءات العامة للمباني الحكومية  100  1500    3  الإنشاءات العامة للمباني السكنية  100  1000</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة الاستشارات الهندسية والمعمارية  1  1000    2  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية  1  1000    3  الاستشارات الهندسية لعمارة البيئة  1  1000    4  الاستشارات الهندسية للتخطيط الحضري  1  1000</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للتخطيط الحضري  25  50    2  الاستشارات الهندسية للسكك الحديدية  500  1000    3  الاستشارات الهندسية للمياه والصرف الصحي  3  6    4  إدارة المشاريع الانشائية  30  60    5  أنشطة الاستشارات الجيولوجية  20  40    6  الاستشارات الهندسية للطرق والجسور والانفاق  15  30    7  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  500  2000    8  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية  5  25    9  تقديم خدمات الاستشارات الهندسية في مجال الوقاية والحماية من الحريق      10  الاستشارات الهندسية لعمارة البيئة  3  25    11  تقديم الخدمات الفنية للوقاية والحماية من الحريق      12  أنشطة الاستشارات البحرية  500  2000    13  أنشطة الاستشارات الهندسية والمعمارية  25  70    14  استشارات الهندسة الميكانيكية</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الإنشاءات العامة للمباني السكنية      2  ترميمات المباني السكنية والغير سكنية      3  إنشاءات المباني الجاهزة في المواقع      4  الإنشاءات العامة للمباني الغير السكنية ، يشمل (المدارس ، المستشفيات، الفنادق ...الخ)</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  إدارة المشاريع الانشائية  50  5000    2  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  50  5000    3  الاستشارات الهندسية للمياه والصرف الصحي  20  500    4  أنشطة الاستشارات الجيولوجية  50  500    5  الاستشارات الهندسية للسكك الحديدية  50  5000    6  أنشطة الاستشارات البحرية  50  5000    7  الاستشارات الهندسية للطرق والجسور والانفاق  500  500</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  ترميمات المباني (التاريخية والتراثية والأثرية)  850  1350</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  استشارات الهندسة الميكانيكية      2  أنشطة الاستشارات الهندسية والمعمارية  50  5000    3  الاستشارات الهندسية لعمارة البيئة  50  5000    4  أنشطة الاستشارات البحرية  300  30000    5  الاستشارات الهندسية للسكك الحديدية  250  250000    6  إدارة المشاريع الانشائية  200  25000    7  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  300  30000    8  أنشطة الاستشارات الجيولوجية  200  20000    9  الاستشارات الهندسية للطرق والجسور والانفاق  100  10000    10  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية  50  5000    11  الاستشارات الهندسية للتخطيط الحضري  150  15000    12  الاستشارات الهندسية للمياه والصرف الصحي  30  3000</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  إدارة المشاريع الانشائية  0  0    2  أنشطة الاستشارات الهندسية والمعمارية  0  0    3  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية  0  0    4  الاستشارات الهندسية للسكك الحديدية  0  0    5  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  0  0    6  استشارات الهندسة الميكانيكية  0  0    7  أنشطة الاستشارات الجيولوجية  0  0    8  الاستشارات الهندسية لعمارة البيئة  0  0    9  الاستشارات الهندسية للطرق والجسور والانفاق  0  0    10  الاستشارات الهندسية للمياه والصرف الصحي  0  0    11  الاستشارات الهندسية للتخطيط الحضري  0  0    12  أنشطة الاستشارات البحرية  0  0</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري      2  الاستشارات الهندسية للمياه والصرف الصحي      3  الاستشارات الهندسية لعمارة البيئة      4  الاستشارات الهندسية للطرق والجسور والانفاق      5  أنشطة الاستشارات الهندسية والمعمارية      6  أنشطة أخرى متعلقة بأنشطة الهندسة المدنية      7  أنشطة الاستشارات الجيولوجية      8  إدارة المشاريع الانشائية      9  الاستشارات الهندسية للسكك الحديدية      10  الاستشارات الهندسية للتخطيط الحضري      11  أنشطة الاستشارات البحرية</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة أخرى متعلقة بأنشطة الهندسة المدنية  400  1000    2  إدارة المشاريع الانشائية  400  1000    3  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  0  0    4  الاستشارات الهندسية للطرق والجسور والانفاق  0  0    5  أنشطة الاستشارات البحرية  0  0    6  الاستشارات الهندسية للسكك الحديدية  0  0    7  الاستشارات الهندسية للمياه والصرف الصحي  400  1000    8  أنشطة الاستشارات الجيولوجية  0  0</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  100  1000    2  أنشطة الاستشارات البحرية  100  1000    3  أنشطة الاستشارات الجيولوجية  100  1000    4  إستشارات الهندسة الميكانيكية  100  1000    5  الاستشارات الهندسية للمياه والصرف الصحي  100  1000    6  الاستشارات الهندسية للسكك الحديدية  100  1000    7  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية  100  1000    8  الاستشارات الهندسية للطرق والجسور والانفاق  100  1000    9  إدارة المشاريع الانشائية  100  1000</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة الاستشارات البحرية      2  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري      3  أنشطة الاستشارات الهندسية والمعمارية      4  الاستشارات الهندسية للسكك الحديدية      5  الاستشارات الهندسية للتخطيط الحضري      6  الاستشارات الهندسية للمياه والصرف الصحي      7  أنشطة أخرى متعلقة بأنشطة الهندسة المدنية      8  استشارات الهندسة الميكانيكية      9  الاستشارات الهندسية للطرق والجسور والانفاق      10  أنشطة الاستشارات الجيولوجية      11  الاستشارات الهندسية لعمارة البيئة      12  إدارة المشاريع الانشائية</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة الاستشارات الجيولوجية  20  30    2  استشارات الهندسة الميكانيكية  20  30    3  الاستشارات الهندسية للمياه والصرف الصحي  20  30    4  الاستشارات الهندسية لعمارة البيئة  20  30    5  أنشطة الاستشارات الهندسية والمعمارية  20  30    6  إدارة المشاريع الانشائية  20  30    7  الاستشارات الهندسية للسكك الحديدية  20  30    8  الاستشارات الهندسية للطرق والجسور والانفاق  20  30    9  الاستشارات الهندسية للتخطيط الحضري  20  30    10  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  20  30    11  أنشطة الاستشارات البحرية  20  30</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للسكك الحديدية  10  100    2  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  10  100    3  أنشطة الاستشارات البحرية  10  100    4  الاستشارات الهندسية للطرق والجسور والانفاق  10  100    5  إدارة المشاريع الانشائية  100  200    6  الاستشارات الهندسية للمياه والصرف الصحي  10  100    7  أنشطة الاستشارات الجيولوجية  10  100</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للتخطيط الحضري      2  الاستشارات الهندسية لعمارة البيئة      3  الاستشارات الهندسية للطرق والجسور والانفاق      4  أنشطة أخرى متعلقة بأنشطة الهندسة المدنية      5  أنشطة الاستشارات الهندسية والمعمارية      6  الاستشارات الهندسية للمياه والصرف الصحي      7  أنشطة الاستشارات الجيولوجية      8  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية      9  أنشطة الاستشارات البحرية      10  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري      11  الاستشارات الهندسية للسكك الحديدية      12  إدارة المشاريع الانشائية</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة الاستشارات البحرية  50  500    2  الاستشارات الهندسية للسكك الحديدية  100  500    3  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  150  500    4  الاستشارات الهندسية للمياه والصرف الصحي  50  300    5  إدارة المشاريع الانشائية  20  450    6  الاستشارات الهندسية للطرق والجسور والانفاق  100  400    7  أنشطة الاستشارات الجيولوجية  45  250</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  ترميمات المباني السكنية والغير سكنية      2  الإنشاءات العامة للمباني الحكومية      3  الإنشاءات العامة للمباني السكنية      4  الإنشاءات العامة للمباني الغير السكنية ، يشمل (المدارس ، المستشفيات، الفنادق ...الخ)</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للطرق والجسور والانفاق  1  5    2  أنشطة الاستشارات البحرية  1  5    3  أنشطة الاستشارات الجيولوجية  1  5    4  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  1  5    5  الاستشارات الهندسية لعمارة البيئة  1  5    6  الاستشارات الهندسية للسكك الحديدية  1  5    7  استشارات الهندسة الميكانيكية  1  5    8  إدارة المشاريع الانشائية  1  5    9  الاستشارات الهندسية للمياه والصرف الصحي  1  5    10  أنشطة الاستشارات الهندسية والمعمارية  1  5    11  الاستشارات الهندسية للتخطيط الحضري  1  5</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  تركيب انظمة التبريد وتكييف الهواء وصيانتها واصلاحها      2  الإنشاءات العامة للمباني الحكومية      3  الإنشاءات العامة للمباني السكنية      4  الإنشاءات العامة للمباني الغير السكنية ، يشمل (المدارس ، المستشفيات، الفنادق ...الخ)      5  تركيب الادوات الصحية وصيانتها واصلاحها      6  ترميمات المباني السكنية والغير سكنية</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  ترميمات المباني السكنية والغير سكنية</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية لعمارة البيئة  25  75    2  الاستشارات الهندسية للتخطيط الحضري  25  75    3  أنشطة الاستشارات الهندسية والمعمارية  25  75</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية لعمارة البيئة  100  150    2  الاستشارات الهندسية للتخطيط الحضري  25  100    3  أنشطة الاستشارات الهندسية والمعمارية  100  200</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية لعمارة البيئة  10  100    2  الاستشارات الهندسية للطرق والجسور والانفاق  10  100    3  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية  10  100    4  الاستشارات الهندسية للسكك الحديدية  10  100    5  أنشطة الاستشارات الجيولوجية  10  100    6  الاستشارات الهندسية للتخطيط الحضري  10  100    7  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  10  100    8  الاستشارات الهندسية للمياه والصرف الصحي  10  100    9  أنشطة الاستشارات الهندسية والمعمارية  10  100    10  أنشطة الاستشارات البحرية  10  100    11  إدارة المشاريع الانشائية  10  100    12  استشارات الهندسة الميكانيكية  10  100</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة الخدمات المساحية والكمية</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  تمديدات الشبكات      2  تمديد الاسلاك الكهربائية</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الإنشاءات العامة للمباني الغير السكنية ، يشمل (المدارس ، المستشفيات، الفنادق ...الخ)      2  إنشاءات المباني الجاهزة في المواقع      3  تشطيب المباني      4  الإنشاءات العامة للمباني السكنية      5  ترميمات المباني (التاريخية والتراثية والأثرية)      6  الإنشاءات العامة للمباني الحكومية      7  ترميمات المباني السكنية والغير سكنية</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية  50  200</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الإنشاءات العامة للمباني السكنية      2  الإنشاءات العامة للمباني الغير السكنية ، يشمل (المدارس ، المستشفيات، الفنادق ...الخ)</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة الخدمات المساحية والكمية  1  3</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة الاستشارات البحرية  0  0    2  أنشطة الاستشارات الهندسية والمعمارية  0  0    3  الاستشارات الهندسية للطرق والجسور والانفاق  0  0    4  تقديم خدمات الاستشارات الهندسية في مجال الوقاية والحماية من الحريق  0  0    5  إدارة المشاريع الانشائية  0  0    6  الاستشارات الهندسية لعمارة البيئة  0  0    7  الاستشارات الهندسية للمياه والصرف الصحي  0  0    8  الاستشارات الهندسية للتخطيط الحضري  0  0    9  أنشطة الاستشارات الجيولوجية  0  0    10  الاستشارات الهندسية للسكك الحديدية  0  0    11  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  0  0</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية لعمارة البيئة  100  150    2  الاستشارات الهندسية للتخطيط الحضري  2  10    3  أنشطة الاستشارات الهندسية والمعمارية  100  150</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للمياه والصرف الصحي  0  0    2  أنشطة الاستشارات البحرية  0  0    3  أنشطة الاستشارات الهندسية والمعمارية  200  1600    4  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  0  0    5  إدارة المشاريع الانشائية  200  1600    6  الاستشارات الهندسية للتخطيط الحضري  0  0    7  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية  0  0    8  الاستشارات الهندسية للسكك الحديدية  0  0    9  الاستشارات الهندسية لعمارة البيئة  0  0    10  الاستشارات الهندسية للطرق والجسور والانفاق  0  0    11  أنشطة الاستشارات الجيولوجية  0  0    12  استشارات الهندسة الميكانيكية  200  1000</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  تشطيب المباني      2  الإنشاءات العامة للمباني السكنية      3  ترميمات المباني السكنية والغير سكنية      4  إنشاءات المباني الجاهزة في المواقع      5  هدم وإزالة المباني وغيرها</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للتخطيط الحضري  25  130    2  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  100  1500    3  الاستشارات الهندسية للسكك الحديدية  25  180    4  إدارة المشاريع الانشائية      5  أنشطة الاستشارات الجيولوجية      6  الاستشارات الهندسية لعمارة البيئة  30  110    7  أنشطة الاستشارات الهندسية والمعمارية  20  90    8  أنشطة أخرى متعلقة بأنشطة الهندسة المدنية  20  85    9  الاستشارات الهندسية للمياه والصرف الصحي  20  160    10  أنشطة الاستشارات البحرية      11  الاستشارات الهندسية للطرق والجسور والانفاق  55  250</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة الاستشارات الجيولوجية      2  تقديم الخدمات الفنية للوقاية والحماية من الحريق      3  الاستشارات الهندسية للسكك الحديدية      4  أنشطة الاستشارات الهندسية والمعمارية      5  الاستشارات الهندسية للطرق والجسور والانفاق      6  الاستشارات الهندسية للمياه والصرف الصحي      7  أنشطة الاستشارات البحرية      8  إدارة المشاريع الانشائية      9  استشارات الهندسة الميكانيكية      10  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية      11  تقديم خدمات الاستشارات الهندسية في مجال الوقاية والحماية من الحريق      12  الاستشارات الهندسية لعمارة البيئة      13  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري      14  الاستشارات الهندسية للتخطيط الحضري</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  ترميمات المباني السكنية والغير سكنية  1500  1600    2  الإنشاءات العامة للمباني السكنية  1500  1600    3  الإنشاءات العامة للمباني الغير السكنية ، يشمل (المدارس ، المستشفيات، الفنادق ...الخ)  3000  3500    4  الإنشاءات العامة للمباني الحكومية  3000  35000</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية      2  الاستشارات الهندسية لعمارة البيئة  1  1000    3  الاستشارات الهندسية للسكك الحديدية  1  1000    4  الاستشارات الهندسية للمياه والصرف الصحي  1  1000    5  تقديم الخدمات الفنية للوقاية والحماية من الحريق      6  أنشطة الاستشارات البحرية  1  1000    7  أنشطة الاستشارات الجيولوجية  1  1000    8  الاستشارات الهندسية للتخطيط الحضري  1  1000    9  الاستشارات الهندسية للطرق والجسور والانفاق  1  1000    10  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  1  1000    11  إدارة المشاريع الانشائية  1  1000    12  أنشطة الاستشارات الهندسية والمعمارية  1  1000    13  استشارات الهندسة الميكانيكية      14  تقديم خدمات الاستشارات الهندسية في مجال الوقاية والحماية من الحريق</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري      2  الاستشارات الهندسية للتخطيط الحضري  0  0    3  الاستشارات الهندسية لعمارة البيئة  0  0    4  أنشطة الاستشارات الهندسية والمعمارية  35  100    5  الاستشارات الهندسية للطرق والجسور والانفاق      6  أنشطة الاستشارات البحرية      7  إدارة المشاريع الانشائية      8  أنشطة الاستشارات الجيولوجية      9  أنشطة الاستشارات في مجال الحاسب الآلي      10  الاستشارات الهندسية للسكك الحديدية      11  الاستشارات الهندسية للمياه والصرف الصحي</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الإنشاءات العامة للمباني الغير السكنية ، يشمل (المدارس ، المستشفيات، الفنادق ...الخ)      2  الإنشاءات العامة للمباني الحكومية      3  الإنشاءات العامة للمباني السكنية      4  ترميمات المباني السكنية والغير سكنية</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  إدارة المشاريع الانشائية      2  الاستشارات الهندسية للطرق والجسور والانفاق      3  أنشطة الاستشارات الجيولوجية      4  الاستشارات الهندسية للسكك الحديدية      5  أنشطة الاستشارات البحرية      6  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية      7  الاستشارات الهندسية للمياه والصرف الصحي      8  استشارات الهندسة الميكانيكية      9  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية لعمارة البيئة  200  300    2  إدارة المشاريع الانشائية  150  450    3  أنشطة الاستشارات البحرية  0  0    4  أنشطة الاستشارات الجيولوجية  0  0    5  تقديم الخدمات الفنية للوقاية والحماية من الحريق  200  700    6  الاستشارات الهندسية للتخطيط الحضري  50  150    7  تقديم خدمات الاستشارات الهندسية في مجال الوقاية والحماية من الحريق  100  500    8  الاستشارات الهندسية للسكك الحديدية  0  0    9  أنشطة الاستشارات الهندسية والمعمارية  50  100    10  الاستشارات الهندسية للطرق والجسور والانفاق  850  2500    11  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  0  0    12  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية  200  350    13  الاستشارات الهندسية للمياه والصرف الصحي  600  1500</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  تقديم الخدمات الفنية للوقاية والحماية من الحريق  0  0    2  الاستشارات الهندسية للسكك الحديدية  0  0    3  تقديم خدمات الاستشارات الهندسية في مجال الوقاية والحماية من الحريق  0  0    4  الاستشارات الهندسية للطرق والجسور والانفاق  0  0    5  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية  0  0    6  الاستشارات الهندسية لعمارة البيئة  0  0    7  أنشطة الاستشارات البحرية  0  0    8  استشارات الهندسة الميكانيكية  0  0    9  الاستشارات الهندسية للتخطيط الحضري  0  0    10  إدارة المشاريع الانشائية  0  0    11  أنشطة الاستشارات الجيولوجية  0  0    12  أنشطة أخرى متعلقة بأنشطة الهندسة المدنية  0  0    13  الاستشارات الهندسية للمياه والصرف الصحي  0  0    14  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  0  0    15  أنشطة الاستشارات الهندسية والمعمارية  0  0</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  ترميمات المباني السكنية والغير سكنية      2  الإنشاءات العامة للمباني الغير السكنية ، يشمل (المدارس ، المستشفيات، الفنادق ...الخ)      3  الإنشاءات العامة للمباني الحكومية      4  الإنشاءات العامة للمباني السكنية</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة الاستشارات البحرية  1000  5000    2  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  1000  5000    3  إدارة المشاريع الانشائية  1000  5000    4  الاستشارات الهندسية للسكك الحديدية  1000  5000    5  الاستشارات الهندسية للمياه والصرف الصحي  1000  5000    6  الاستشارات الهندسية للطرق والجسور والانفاق  1000  5000    7  أنشطة الاستشارات الجيولوجية  1000  5000</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  25  110    2  أنشطة الاستشارات الجيولوجية  50  250    3  أنشطة الاستشارات الهندسية والمعمارية  10  40    4  الاستشارات الهندسية للتخطيط الحضري  4  5    5  الاستشارات الهندسية لعمارة البيئة  40  200    6  الاستشارات الهندسية للسكك الحديدية  60  180    7  إدارة المشاريع الانشائية  35  150    8  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية  25  75    9  الاستشارات الهندسية للمياه والصرف الصحي  60  300    10  أنشطة الاستشارات البحرية  200  350    11  الاستشارات الهندسية للطرق والجسور والانفاق  75  275</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  إصلاح وصيانة المحطات والشبكات والخطوط الرئيسية لتوزيع المياه      2  تمديد الانابيب باختلاف انواعها للكهرباء والاتصالات وغيرها      3  إنشاء محطات ومشاريع الصرف الصحي وشبكات المجاري والمضخات      4  هدم وإزالة المباني وغيرها      5  اعداد وتجهيز المواقع من الحفر والتسوية      6  إنشاء الطرق والشوارع والارصفة ومستلزمات الطرق      7  إنشاء الجسور والانفاق</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للسكك الحديدية  0  0    2  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  0  0    3  الاستشارات الهندسية للطرق والجسور والانفاق  0  0    4  أنشطة الاستشارات الجيولوجية      5  إدارة المشاريع الانشائية      6  أنشطة الاستشارات البحرية      7  الاستشارات الهندسية للمياه والصرف الصحي  0  0    8  أنشطة أخرى متعلقة بأنشطة الهندسة المدنية  0  0</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للطرق والجسور والانفاق      2  الاستشارات الهندسية للسكك الحديدية      3  أنشطة الاستشارات الهندسية والمعمارية      4  الاستشارات الهندسية للمياه والصرف الصحي      5  أنشطة الاستشارات البحرية      6  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري      7  أنشطة الاستشارات الجيولوجية      8  الاستشارات الهندسية للتخطيط الحضري      9  أنشطة أخرى متعلقة بأنشطة الهندسة المدنية      10  إدارة المشاريع الانشائية      11  الاستشارات الهندسية لعمارة البيئة      12  استشارات الهندسة الميكانيكية</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة الاستشارات الصناعية  50  100    2  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  50  100    3  الاستشارات الهندسية للمياه والصرف الصحي  50  100    4  الاستشارات الهندسية للسكك الحديدية  50  100    5  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية  50  100    6  أنشطة الاستشارات البحرية  50  100    7  إدارة المشاريع الانشائية  50  100    8  الاستشارات الهندسية لعمارة البيئة  50  100    9  الاستشارات الهندسية للتخطيط الحضري  50  100    10  أنشطة الاستشارات الجيولوجية  50  100    11  أنشطة الاستشارات الهندسية والمعمارية  50  100    12  الاستشارات الهندسية للطرق والجسور والانفاق  50  100</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للتخطيط الحضري  15  20    2  أنشطة الاستشارات الهندسية والمعمارية  30  50    3  الاستشارات الهندسية لعمارة البيئة  15  20</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  خدمات جمع النفايات البلدية      2  إنشاء الطرق والشوارع والارصفة ومستلزمات الطرق      3  المطاعم مع الخدمة      4  تقديم خدمات الاتصالات المتنقلة      5  نقل النفايات الصناعية الغير خطرة      6  الإنشاءات العامة للمباني السكنية      7  نقل نفايات البلدية      8  جمع المواد لإعادة التصنيع</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للسكك الحديدية      2  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري      3  أنشطة أخرى متعلقة بأنشطة الهندسة المدنية      4  أنشطة الاستشارات الجيولوجية      5  الاستشارات الهندسية لعمارة البيئة      6  استشارات الهندسة الميكانيكية      7  أنشطة الاستشارات الهندسية والمعمارية      8  إدارة المشاريع الانشائية      9  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية      10  الاستشارات الهندسية للطرق والجسور والانفاق      11  الاستشارات الهندسية للتخطيط الحضري      12  أنشطة الاستشارات البحرية      13  الاستشارات الهندسية للمياه والصرف الصحي</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية لعمارة البيئة  60  200    2  الاستشارات الهندسية للمياه والصرف الصحي  60  200    3  الاستشارات الهندسية للطرق والجسور والانفاق  60  200    4  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  60  200    5  الاستشارات الهندسية للسكك الحديدية  60  200    6  إدارة المشاريع الانشائية  60  200    7  أنشطة الاستشارات البحرية  60  200    8  أنشطة الاستشارات الجيولوجية  60  200    9  أنشطة الاستشارات الهندسية والمعمارية  60  200    10  الاستشارات الهندسية للتخطيط الحضري  60  200    11  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية  60  200</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للتخطيط الحضري  10000  100000    2  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  10000  100000    3  أنشطة الاستشارات الهندسية والمعمارية  10000  100000    4  أنشطة الاستشارات الجيولوجية  10000  100000    5  الاستشارات الهندسية للطرق والجسور والانفاق  10000  100000    6  الاستشارات الهندسية لعمارة البيئة  10000  100000    7  أنشطة الاستشارات البحرية  10000  100000    8  إدارة المشاريع الانشائية  10000  100000    9  الاستشارات الهندسية للمياه والصرف الصحي  10000  100000    10  الاستشارات الهندسية للسكك الحديدية  10000  100000</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة الاستشارات الهندسية والمعمارية  0  500    2  الاستشارات الهندسية لعمارة البيئة  0  500    3  الاستشارات الهندسية للتخطيط الحضري  0  500</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  ترميمات المباني السكنية والغير سكنية  10000  100000</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة الخدمات المساحية والكمية  2  10</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  إدارة المشاريع الانشائية  1000  10000    2  الاستشارات الهندسية للطرق والجسور والانفاق  0  0    3  أنشطة الاستشارات الجيولوجية  0  0    4  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  0  0    5  الاستشارات الهندسية للمياه والصرف الصحي  0  0    6  الاستشارات الهندسية للسكك الحديدية  0  0    7  أنشطة الاستشارات البحرية  0  0</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  إستشارات الهندسة الالكترونية      2  إستشارات الهندسة الميكانيكية  1  1    3  أنشطة الاستشارات الهندسية والمعمارية  1  1    4  الاستشارات الهندسية للمياه والصرف الصحي  1  1    5  أنشطة الاستشارات البحرية  1  1    6  الاستشارات الهندسية للطرق والجسور والانفاق  1  1    7  الاستشارات الهندسية للسكك الحديدية  1  1    8  الاستشارات الهندسية للتخطيط الحضري  1  1    9  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  1  1    10  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية  1  1    11  إدارة المشاريع الانشائية  1  1    12  أنشطة الاستشارات الجيولوجية  1  1    13  الاستشارات الهندسية لعمارة البيئة  1  1</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة الاستشارات البحرية  50  100    2  أنشطة الاستشارات الجيولوجية  50  100    3  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  50  100    4  إدارة المشاريع الانشائية  50  100    5  الاستشارات الهندسية للمياه والصرف الصحي  50  100    6  الاستشارات الهندسية للسكك الحديدية  50  100    7  الاستشارات الهندسية للطرق والجسور والانفاق  50  100</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  1000  5000    2  الاستشارات الهندسية للمياه والصرف الصحي  1000  5000    3  الاستشارات الهندسية للسكك الحديدية  1000  5000    4  أنشطة الاستشارات الجيولوجية      5  إدارة المشاريع الانشائية      6  الاستشارات الهندسية للطرق والجسور والانفاق  1000  5000    7  أنشطة أخرى متعلقة بأنشطة الهندسة المدنية  1000  5000    8  أنشطة الاستشارات البحرية</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة الاستشارات البحرية  50  169    2  الاستشارات الهندسية للطرق والجسور والانفاق  50  200    3  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  45  148    4  الاستشارات الهندسية للسكك الحديدية  50  250    5  أنشطة الاستشارات الجيولوجية  50  150    6  إدارة المشاريع الانشائية  50  150    7  الاستشارات الهندسية للمياه والصرف الصحي  50  160</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  1  100000    2  أنشطة الاستشارات البحرية  1  100000    3  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية  1  100000    4  الاستشارات الهندسية للمياه والصرف الصحي  1  100000    5  إدارة المشاريع الانشائية  1  100000    6  الاستشارات الهندسية للطرق والجسور والانفاق  1  100000    7  أنشطة الاستشارات الجيولوجية  1  100000    8  أنشطة الاستشارات الكيميائية  1  100000    9  الاستشارات الهندسية للسكك الحديدية  1  100000</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية لعمارة البيئة  50  100    2  الاستشارات الهندسية للطرق والجسور والانفاق  10  20    3  الاستشارات الهندسية للمياه والصرف الصحي  20  30    4  أنشطة أخرى متعلقة بأنشطة الهندسة المدنية  50  100    5  الاستشارات الهندسية للسكك الحديدية  60  100    6  أنشطة الاستشارات البحرية      7  الاستشارات الهندسية للتخطيط الحضري  50  80    8  أنشطة الاستشارات الجيولوجية      9  إدارة المشاريع الانشائية      10  أنشطة الاستشارات الهندسية والمعمارية  60  100    11  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  30  50</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الإنشاءات العامة للمباني الحكومية      2  ترميمات المباني السكنية والغير سكنية  100  1000    3  الإنشاءات العامة للمباني الغير السكنية ، يشمل (المدارس ، المستشفيات، الفنادق ...الخ)      4  الإنشاءات العامة للمباني السكنية</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة الاستشارات الهندسية والمعمارية      2  الاستشارات الهندسية للسكك الحديدية      3  أنشطة الاستشارات الجيولوجية      4  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري      5  استشارات الهندسة الميكانيكية      6  أنشطة أخرى متعلقة بأنشطة الهندسة المدنية      7  الاستشارات الهندسية للطرق والجسور والانفاق      8  الاستشارات الهندسية للتخطيط الحضري      9  أنشطة الاستشارات البحرية      10  الاستشارات الهندسية للمياه والصرف الصحي      11  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية      12  إدارة المشاريع الانشائية      13  الاستشارات الهندسية لعمارة البيئة</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  إدارة المشاريع الانشائية  5000  15000    2  الاستشارات الهندسية للسكك الحديدية  5000  15000    3  الاستشارات الهندسية للتخطيط الحضري      4  أنشطة الاستشارات الهندسية والمعمارية      5  الاستشارات الهندسية لعمارة البيئة      6  الاستشارات الهندسية للمياه والصرف الصحي  5000  15000    7  الاستشارات الهندسية للطرق والجسور والانفاق  5000  15000    8  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  5000  15000    9  أنشطة الاستشارات البحرية  5000  15000    10  أنشطة الاستشارات الجيولوجية  5000  15000</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للسكك الحديدية  0  0    2  أنشطة الاستشارات البحرية  0  0    3  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية  0  0    4  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  0  0    5  إدارة المشاريع الانشائية  0  0    6  الاستشارات الهندسية للتخطيط الحضري  0  0    7  تقديم خدمات الاستشارات الهندسية في مجال الوقاية والحماية من الحريق      8  أنشطة الاستشارات الجيولوجية  0  0    9  الاستشارات الهندسية للطرق والجسور والانفاق  0  0    10  أنشطة الاستشارات الهندسية والمعمارية  0  0    11  الاستشارات الهندسية لعمارة البيئة  0  0    12  أنشطة أخرى متعلقة بأنشطة الهندسة المدنية  0  0    13  استشارات الهندسة الميكانيكية  0  0    14  الاستشارات الهندسية للمياه والصرف الصحي  0  0</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة الاستشارات الهندسية والمعمارية  100  1000    2  الاستشارات الهندسية لعمارة البيئة  100  1000    3  الاستشارات الهندسية للتخطيط الحضري  100  1000</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  المسح الأرضي  100  1000</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  ترميمات المباني السكنية والغير سكنية      2  الإنشاءات العامة للمباني السكنية      3  هدم وإزالة المباني وغيرها      4  إنشاءات المباني الجاهزة في المواقع</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  إدارة المشاريع الانشائية      2  أنشطة الاستشارات البحرية      3  أنشطة الاستشارات الهندسية والمعمارية      4  الاستشارات الهندسية للتخطيط الحضري      5  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية      6  الاستشارات الهندسية للطرق والجسور والانفاق      7  الاستشارات الهندسية لعمارة البيئة      8  الاستشارات الهندسية للسكك الحديدية      9  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري      10  تقديم خدمات الاستشارات الهندسية في مجال الوقاية والحماية من الحريق      11  الاستشارات الهندسية للمياه والصرف الصحي      12  أنشطة أخرى متعلقة بأنشطة الهندسة المدنية      13  أنشطة الاستشارات الجيولوجية      14  استشارات الهندسة الميكانيكية      15  تقديم الخدمات الفنية للوقاية والحماية من الحريق</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  أنشطة الاستشارات الجيولوجية      2  الاستشارات الهندسية لعمارة البيئة      3  إدارة المشاريع الانشائية      4  الاستشارات الهندسية للطرق والجسور والانفاق      5  أنشطة الاستشارات البحرية      6  استشارات الهندسة الميكانيكية      7  أنشطة الاستشارات الهندسية والمعمارية      8  الاستشارات الهندسية للمياه والصرف الصحي      9  الاستشارات الهندسية للتخطيط الحضري      10  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية      11  الاستشارات الهندسية للسكك الحديدية      12  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  100  200    2  الاستشارات الهندسية لعمارة البيئة  100  200    3  الاستشارات الهندسية للطرق والجسور والانفاق  100  200    4  أنشطة الاستشارات الجيولوجية  100  200    5  الاستشارات الهندسية للسكك الحديدية  100  200    6  إستشارات الهندسة الميكانيكية  35  65    7  الاستشارات الهندسية للمياه والصرف الصحي  100  200    8  إدارة المشاريع الانشائية  50  100    9  الاستشارات الهندسية للتخطيط الحضري  100  200    10  أنشطة الاستشارات الهندسية والمعمارية  70  150    11  أنشطة الاستشارات البحرية  100  200</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للتخطيط الحضري  100  1000    2  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية  100  10000    3  الاستشارات الهندسية للطرق والجسور والانفاق  100  1000    4  الاستشارات الهندسية للسكك الحديدية  100  1000    5  تقديم خدمات الاستشارات الهندسية في مجال الوقاية والحماية من الحريق  100  1000    6  أنشطة الاستشارات البحرية  100  10000    7  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  100  1000    8  تقديم الخدمات الفنية للوقاية والحماية من الحريق  100  10000    9  الاستشارات الهندسية للمياه والصرف الصحي  100  1000    10  أنشطة الاستشارات الهندسية والمعمارية  100  1000    11  أنشطة الاستشارات الجيولوجية  100  1000    12  الاستشارات الهندسية لعمارة البيئة  100  1000    13  إدارة المشاريع الانشائية  100  1000</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  تقديم الخدمات الفنية للوقاية والحماية من الحريق      2  أنشطة الاستشارات الهندسية والمعمارية  20  50    3  تقديم خدمات الاستشارات الهندسية في مجال الوقاية والحماية من الحريق      4  الاستشارات الهندسية لعمارة البيئة  20  50    5  الاستشارات الهندسية للتخطيط الحضري  20  50    6  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية  20  50</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  إدارة المشاريع الانشائية  50  150    2  الاستشارات الهندسية للمياه والصرف الصحي  50  150    3  أنشطة الاستشارات الجيولوجية  50  150    4  الاستشارات الهندسية للتخطيط الحضري  50  150    5  أنشطة الاستشارات البحرية  50  150    6  الاستشارات الهندسية للسكك الحديدية  50  150    7  الاستشارات الهندسية للموانئ البحرية وإنشاءات النقل البحري  50  150    8  الاستشارات الهندسية للطرق والجسور والانفاق  50  150    9  أنشطة الاستشارات الهندسية والمعمارية  50  150    10  الاستشارات الهندسية لعمارة البيئة  50  150    11  أنشطة الهندسة للمشاريع الكهربائية والحفريات والامن والسلامة والكيماوية  50  150</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  تشطيب المباني      2  أعمال وتركيب الديكورات      3  أعمال الدهانات والطلاء للمباني الداخلية والخارجية</t>
-  </si>
-  <si>
-    <t>اسم النشاط  الحد الادنى لسعر المتر المربع  الحد الاعلى لسعر المتر المربع      1  الاستشارات الهندسية للتخطيط الحضري      2  الاستشارات الهندسية لعمارة البيئة      3  أنشطة الاستشارات الهندسية والمعمارية</t>
+    <t>جدة - حي العزي...</t>
+  </si>
+  <si>
+    <t>طؤيق عمر بن ال...</t>
+  </si>
+  <si>
+    <t>حي الاندالس شا...</t>
+  </si>
+  <si>
+    <t>المملكة العربي...</t>
+  </si>
+  <si>
+    <t>حي الخامسة شار...</t>
+  </si>
+  <si>
+    <t>جده- ابحر الشم...</t>
+  </si>
+  <si>
+    <t>الرياض \ عفيف ...</t>
+  </si>
+  <si>
+    <t>اسم النشاط
+الح...</t>
   </si>
 </sst>
 </file>
@@ -2719,10 +2468,10 @@
         <v>342</v>
       </c>
       <c r="K2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2748,7 +2497,7 @@
         <v>488</v>
       </c>
       <c r="L3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2780,10 +2529,10 @@
         <v>343</v>
       </c>
       <c r="K4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L4" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2841,10 +2590,10 @@
         <v>344</v>
       </c>
       <c r="K6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2879,10 +2628,10 @@
         <v>345</v>
       </c>
       <c r="K7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L7" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2917,10 +2666,10 @@
         <v>346</v>
       </c>
       <c r="K8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L8" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2963,7 +2712,7 @@
         <v>251</v>
       </c>
       <c r="L10" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2998,10 +2747,10 @@
         <v>347</v>
       </c>
       <c r="K11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L11" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3033,13 +2782,13 @@
         <v>496</v>
       </c>
       <c r="J12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L12" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3071,13 +2820,13 @@
         <v>497</v>
       </c>
       <c r="J13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L13" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3109,13 +2858,13 @@
         <v>498</v>
       </c>
       <c r="J14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L14" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3150,10 +2899,10 @@
         <v>351</v>
       </c>
       <c r="K15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L15" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3188,10 +2937,10 @@
         <v>352</v>
       </c>
       <c r="K16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L16" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3226,10 +2975,10 @@
         <v>353</v>
       </c>
       <c r="K17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L17" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3261,13 +3010,13 @@
         <v>502</v>
       </c>
       <c r="J18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L18" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3302,10 +3051,10 @@
         <v>355</v>
       </c>
       <c r="K19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L19" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3340,10 +3089,10 @@
         <v>356</v>
       </c>
       <c r="K20" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L20" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3375,13 +3124,13 @@
         <v>505</v>
       </c>
       <c r="J21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L21" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3413,13 +3162,13 @@
         <v>506</v>
       </c>
       <c r="J22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K22" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L22" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3442,7 +3191,7 @@
         <v>264</v>
       </c>
       <c r="L23" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3477,10 +3226,10 @@
         <v>359</v>
       </c>
       <c r="K24" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L24" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3512,7 +3261,7 @@
         <v>360</v>
       </c>
       <c r="K25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3555,7 +3304,7 @@
         <v>268</v>
       </c>
       <c r="L27" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3581,7 +3330,7 @@
         <v>510</v>
       </c>
       <c r="L28" t="s">
-        <v>693</v>
+        <v>668</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3616,10 +3365,10 @@
         <v>361</v>
       </c>
       <c r="K29" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L29" t="s">
-        <v>694</v>
+        <v>668</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3648,10 +3397,10 @@
         <v>512</v>
       </c>
       <c r="J30" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K30" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3703,10 +3452,10 @@
         <v>363</v>
       </c>
       <c r="K32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L32" t="s">
-        <v>695</v>
+        <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3738,10 +3487,10 @@
         <v>364</v>
       </c>
       <c r="K33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L33" t="s">
-        <v>696</v>
+        <v>668</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3776,10 +3525,10 @@
         <v>365</v>
       </c>
       <c r="K34" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L34" t="s">
-        <v>697</v>
+        <v>668</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3802,7 +3551,7 @@
         <v>276</v>
       </c>
       <c r="L35" t="s">
-        <v>698</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3825,7 +3574,7 @@
         <v>277</v>
       </c>
       <c r="L36" t="s">
-        <v>699</v>
+        <v>668</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3860,10 +3609,10 @@
         <v>366</v>
       </c>
       <c r="K37" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L37" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3886,7 +3635,7 @@
         <v>279</v>
       </c>
       <c r="L38" t="s">
-        <v>701</v>
+        <v>668</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3935,13 +3684,13 @@
         <v>519</v>
       </c>
       <c r="J40" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K40" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L40" t="s">
-        <v>702</v>
+        <v>668</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3976,10 +3725,10 @@
         <v>368</v>
       </c>
       <c r="K41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L41" t="s">
-        <v>703</v>
+        <v>668</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -4014,10 +3763,10 @@
         <v>369</v>
       </c>
       <c r="K42" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L42" t="s">
-        <v>704</v>
+        <v>668</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -4063,10 +3812,10 @@
         <v>370</v>
       </c>
       <c r="K44" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L44" t="s">
-        <v>705</v>
+        <v>668</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -4092,7 +3841,7 @@
         <v>523</v>
       </c>
       <c r="L45" t="s">
-        <v>706</v>
+        <v>668</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -4127,7 +3876,7 @@
         <v>371</v>
       </c>
       <c r="K46" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -4182,10 +3931,10 @@
         <v>372</v>
       </c>
       <c r="K48" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L48" t="s">
-        <v>707</v>
+        <v>668</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -4217,13 +3966,13 @@
         <v>527</v>
       </c>
       <c r="J49" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L49" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -4249,7 +3998,7 @@
         <v>528</v>
       </c>
       <c r="L50" t="s">
-        <v>693</v>
+        <v>668</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -4284,10 +4033,10 @@
         <v>374</v>
       </c>
       <c r="K51" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L51" t="s">
-        <v>709</v>
+        <v>668</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -4319,13 +4068,13 @@
         <v>530</v>
       </c>
       <c r="J52" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K52" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L52" t="s">
-        <v>710</v>
+        <v>668</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4360,10 +4109,10 @@
         <v>376</v>
       </c>
       <c r="K53" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L53" t="s">
-        <v>711</v>
+        <v>668</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4386,7 +4135,7 @@
         <v>294</v>
       </c>
       <c r="L54" t="s">
-        <v>712</v>
+        <v>668</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4421,10 +4170,10 @@
         <v>377</v>
       </c>
       <c r="K55" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L55" t="s">
-        <v>713</v>
+        <v>668</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4459,10 +4208,10 @@
         <v>378</v>
       </c>
       <c r="K56" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L56" t="s">
-        <v>714</v>
+        <v>668</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4511,13 +4260,13 @@
         <v>535</v>
       </c>
       <c r="J58" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K58" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L58" t="s">
-        <v>715</v>
+        <v>668</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4540,7 +4289,7 @@
         <v>299</v>
       </c>
       <c r="L59" t="s">
-        <v>716</v>
+        <v>668</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4572,13 +4321,13 @@
         <v>536</v>
       </c>
       <c r="J60" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K60" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L60" t="s">
-        <v>717</v>
+        <v>668</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4613,10 +4362,10 @@
         <v>381</v>
       </c>
       <c r="K61" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L61" t="s">
-        <v>718</v>
+        <v>668</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4639,7 +4388,7 @@
         <v>302</v>
       </c>
       <c r="L62" t="s">
-        <v>719</v>
+        <v>668</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4671,13 +4420,13 @@
         <v>538</v>
       </c>
       <c r="J63" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K63" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L63" t="s">
-        <v>720</v>
+        <v>668</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4712,10 +4461,10 @@
         <v>383</v>
       </c>
       <c r="K64" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="L64" t="s">
-        <v>721</v>
+        <v>668</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4750,10 +4499,10 @@
         <v>384</v>
       </c>
       <c r="K65" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="L65" t="s">
-        <v>722</v>
+        <v>668</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4785,13 +4534,13 @@
         <v>541</v>
       </c>
       <c r="J66" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K66" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L66" t="s">
-        <v>723</v>
+        <v>668</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4820,10 +4569,10 @@
         <v>542</v>
       </c>
       <c r="J67" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K67" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4849,7 +4598,7 @@
         <v>543</v>
       </c>
       <c r="L68" t="s">
-        <v>693</v>
+        <v>668</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4872,7 +4621,7 @@
         <v>309</v>
       </c>
       <c r="L69" t="s">
-        <v>724</v>
+        <v>668</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4904,13 +4653,13 @@
         <v>544</v>
       </c>
       <c r="J70" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K70" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="L70" t="s">
-        <v>725</v>
+        <v>668</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4942,13 +4691,13 @@
         <v>545</v>
       </c>
       <c r="J71" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K71" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="L71" t="s">
-        <v>726</v>
+        <v>668</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4980,10 +4729,10 @@
         <v>389</v>
       </c>
       <c r="K72" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="L72" t="s">
-        <v>727</v>
+        <v>668</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -5018,10 +4767,10 @@
         <v>390</v>
       </c>
       <c r="K73" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="L73" t="s">
-        <v>728</v>
+        <v>668</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -5073,16 +4822,16 @@
         <v>463</v>
       </c>
       <c r="I75" t="s">
-        <v>549</v>
+        <v>463</v>
       </c>
       <c r="J75" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K75" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="L75" t="s">
-        <v>729</v>
+        <v>668</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -5099,7 +4848,7 @@
         <v>316</v>
       </c>
       <c r="I76" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -5125,13 +4874,13 @@
         <v>464</v>
       </c>
       <c r="I77" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J77" t="s">
         <v>392</v>
       </c>
       <c r="K77" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -5160,16 +4909,16 @@
         <v>465</v>
       </c>
       <c r="I78" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J78" t="s">
         <v>393</v>
       </c>
       <c r="K78" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="L78" t="s">
-        <v>730</v>
+        <v>668</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5198,16 +4947,16 @@
         <v>466</v>
       </c>
       <c r="I79" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J79" t="s">
         <v>394</v>
       </c>
       <c r="K79" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="L79" t="s">
-        <v>731</v>
+        <v>668</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5236,16 +4985,16 @@
         <v>467</v>
       </c>
       <c r="I80" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J80" t="s">
         <v>395</v>
       </c>
       <c r="K80" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L80" t="s">
-        <v>732</v>
+        <v>668</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5274,16 +5023,16 @@
         <v>468</v>
       </c>
       <c r="I81" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J81" t="s">
         <v>396</v>
       </c>
       <c r="K81" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="L81" t="s">
-        <v>733</v>
+        <v>668</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5312,16 +5061,16 @@
         <v>469</v>
       </c>
       <c r="I82" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J82" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K82" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="L82" t="s">
-        <v>734</v>
+        <v>668</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5350,16 +5099,16 @@
         <v>470</v>
       </c>
       <c r="I83" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J83" t="s">
         <v>398</v>
       </c>
       <c r="K83" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L83" t="s">
-        <v>735</v>
+        <v>668</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5388,16 +5137,16 @@
         <v>471</v>
       </c>
       <c r="I84" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J84" t="s">
         <v>399</v>
       </c>
       <c r="K84" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="L84" t="s">
-        <v>736</v>
+        <v>668</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5426,16 +5175,16 @@
         <v>472</v>
       </c>
       <c r="I85" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J85" t="s">
         <v>400</v>
       </c>
       <c r="K85" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="L85" t="s">
-        <v>737</v>
+        <v>668</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5461,13 +5210,13 @@
         <v>473</v>
       </c>
       <c r="I86" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J86" t="s">
         <v>401</v>
       </c>
       <c r="K86" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5496,16 +5245,16 @@
         <v>474</v>
       </c>
       <c r="I87" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J87" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K87" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L87" t="s">
-        <v>738</v>
+        <v>668</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5534,16 +5283,16 @@
         <v>475</v>
       </c>
       <c r="I88" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J88" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K88" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L88" t="s">
-        <v>739</v>
+        <v>668</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5569,16 +5318,16 @@
         <v>476</v>
       </c>
       <c r="I89" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J89" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K89" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L89" t="s">
-        <v>740</v>
+        <v>668</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5607,16 +5356,16 @@
         <v>477</v>
       </c>
       <c r="I90" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J90" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K90" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="L90" t="s">
-        <v>741</v>
+        <v>668</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5645,16 +5394,16 @@
         <v>478</v>
       </c>
       <c r="I91" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J91" t="s">
         <v>406</v>
       </c>
       <c r="K91" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="L91" t="s">
-        <v>742</v>
+        <v>668</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5683,16 +5432,16 @@
         <v>479</v>
       </c>
       <c r="I92" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J92" t="s">
         <v>407</v>
       </c>
       <c r="K92" t="s">
-        <v>663</v>
+        <v>620</v>
       </c>
       <c r="L92" t="s">
-        <v>743</v>
+        <v>668</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5715,7 +5464,7 @@
         <v>333</v>
       </c>
       <c r="L93" t="s">
-        <v>744</v>
+        <v>668</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5744,16 +5493,16 @@
         <v>480</v>
       </c>
       <c r="I94" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J94" t="s">
         <v>408</v>
       </c>
       <c r="K94" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="L94" t="s">
-        <v>745</v>
+        <v>668</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5782,16 +5531,16 @@
         <v>481</v>
       </c>
       <c r="I95" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J95" t="s">
         <v>409</v>
       </c>
       <c r="K95" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="L95" t="s">
-        <v>746</v>
+        <v>668</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5820,16 +5569,16 @@
         <v>482</v>
       </c>
       <c r="I96" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J96" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K96" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="L96" t="s">
-        <v>747</v>
+        <v>668</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5858,16 +5607,16 @@
         <v>483</v>
       </c>
       <c r="I97" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J97" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K97" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="L97" t="s">
-        <v>748</v>
+        <v>668</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5896,16 +5645,16 @@
         <v>484</v>
       </c>
       <c r="I98" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J98" t="s">
         <v>399</v>
       </c>
       <c r="K98" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="L98" t="s">
-        <v>749</v>
+        <v>668</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5934,16 +5683,16 @@
         <v>485</v>
       </c>
       <c r="I99" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J99" t="s">
         <v>412</v>
       </c>
       <c r="K99" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="L99" t="s">
-        <v>750</v>
+        <v>668</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5966,7 +5715,7 @@
         <v>340</v>
       </c>
       <c r="L100" t="s">
-        <v>751</v>
+        <v>668</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5995,16 +5744,16 @@
         <v>486</v>
       </c>
       <c r="I101" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J101" t="s">
         <v>413</v>
       </c>
       <c r="K101" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L101" t="s">
-        <v>752</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>

--- a/samples/SA-عينة-مكاتب-هندسية-preview.xlsx
+++ b/samples/SA-عينة-مكاتب-هندسية-preview.xlsx
@@ -2020,8 +2020,7 @@
     <t>الرياض \ عفيف ...</t>
   </si>
   <si>
-    <t>اسم النشاط
-الح...</t>
+    <t>اسم النشاط الح...</t>
   </si>
 </sst>
 </file>
